--- a/Final_Assignment/personality and race-IAT study/data/processed/data_processed_codebook.xlsx
+++ b/Final_Assignment/personality and race-IAT study/data/processed/data_processed_codebook.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unibe365-my.sharepoint.com/personal/emilie_zitzmann_students_unibe_ch/Documents/Master/Improving the credibility of future research/git/dpm-assignments/Final_Assignment/personality and race-IAT study/data/processed/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="103" documentId="11_D9A6D3320049EB98B8B43AD5AF3E1893925911E8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{20CEE01B-A7A4-4752-9FE5-302BE4864535}"/>
+  <xr:revisionPtr revIDLastSave="129" documentId="11_D9A6D3320049EB98B8B43AD5AF3E1893925911E8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{829D99D3-518B-4314-AB64-B981FE832C5A}"/>
   <bookViews>
     <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="134">
   <si>
     <t>variable</t>
   </si>
@@ -380,6 +380,48 @@
   </si>
   <si>
     <t>Calculated mean of bfi subscale openness</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Greenwald D Score: Calculated through (mean2 - mean1) /SD </t>
+  </si>
+  <si>
+    <t>Mean reaction time for block 3 and 6 (one score)</t>
+  </si>
+  <si>
+    <t>Mean reaction time for block 4 and 7 (one score)</t>
+  </si>
+  <si>
+    <t>Standard deviation of all the relevant blocks (3, 4, 6 , 7). Block 1, 2, 5 are practice blocks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Checks whether the D-score is in a range of -2 to +2 </t>
+  </si>
+  <si>
+    <t>Checks whether the logical number of bfi calculated means are not violated (min =1, max =6)</t>
+  </si>
+  <si>
+    <t>Checks whether the logical number of bfi subscales are not violated (min =1, max =6)</t>
+  </si>
+  <si>
+    <t>Checks whether the included participants have a completed questionnaire in at least 2 subscales</t>
+  </si>
+  <si>
+    <t>Checks whether the IAT Trials are all completed. The trial number should be 120 for each participant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Checks whether over 10 % of the trials are completed in under 300 ms </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Checks whether under 75% of the trials have an "incorrrect" accuracy. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sets "exclude" to the proportion_fast_reaction_time and proportion_low_accuracy_iat if they are true </t>
+  </si>
+  <si>
+    <t>Excludes the duplicated data for subjects listed more than once.</t>
+  </si>
+  <si>
+    <t>Sets "exclude" to participants if the other check variables are set to "exclude" = Master exclusion variable</t>
   </si>
 </sst>
 </file>
@@ -432,6 +474,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -715,14 +761,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A53" workbookViewId="0">
-      <selection activeCell="B56" sqref="B56"/>
+    <sheetView tabSelected="1" topLeftCell="A57" workbookViewId="0">
+      <selection activeCell="C66" sqref="C66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
     <col min="1" max="1" width="28.6328125" customWidth="1"/>
-    <col min="2" max="2" width="59.26953125" customWidth="1"/>
+    <col min="2" max="2" width="86.953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.75">
@@ -1113,11 +1159,17 @@
       <c r="A49" t="s">
         <v>49</v>
       </c>
+      <c r="B49" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A50" t="s">
         <v>50</v>
       </c>
+      <c r="B50" t="s">
+        <v>127</v>
+      </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A51" t="s">
@@ -1163,60 +1215,96 @@
       <c r="A56" t="s">
         <v>56</v>
       </c>
+      <c r="B56" t="s">
+        <v>125</v>
+      </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A57" t="s">
         <v>57</v>
       </c>
+      <c r="B57" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A58" t="s">
         <v>58</v>
       </c>
+      <c r="B58" t="s">
+        <v>121</v>
+      </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A59" t="s">
         <v>59</v>
       </c>
+      <c r="B59" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A60" t="s">
         <v>60</v>
       </c>
+      <c r="B60" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A61" t="s">
         <v>61</v>
       </c>
+      <c r="B61" t="s">
+        <v>124</v>
+      </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A62" t="s">
         <v>62</v>
       </c>
+      <c r="B62" t="s">
+        <v>128</v>
+      </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A63" t="s">
         <v>63</v>
       </c>
+      <c r="B63" t="s">
+        <v>129</v>
+      </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A64" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B64" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A65" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B65" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A66" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B66" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A67" t="s">
         <v>67</v>
+      </c>
+      <c r="B67" t="s">
+        <v>133</v>
       </c>
     </row>
   </sheetData>
